--- a/biology/Botanique/Noronhia_ambrensis/Noronhia_ambrensis.xlsx
+++ b/biology/Botanique/Noronhia_ambrensis/Noronhia_ambrensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noronhia ambrensis H. Perrier est une plante à fleurs, de la famille des Oléacées. C'est un arbre qui pousse à Madagascar.
 </t>
@@ -511,17 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La seule description dont nous disposons est celle de P.S. Green faite d'après des échantillons d'herbiers.
-Appareil végétatif
-Ce sont des arbres de 10 m de  haut. Les parties jeunes sont glabres.
-Les pétioles des feuilles ont de 5 à 15 mm de longueur, pubescents à finement pubérulents. Le limbe des feuilles est sub-coriace, oblong ou étroitement oblong à légèrement lancéolé, de (5-)6 à 10 cm de long, (1-)2 à 4cm de large, la base est aigüe à presque obtuse, légèrement décurrent sur le pétiole, l'apex est obtus mais distinctement cuspidé. Il y a 5 à 7 nervures primaires de part et d'autre de la nervure centrale. Cette nervure est légèrement saillante sur la face adaxiale (face supérieure). Les feuilles sont pendantes.
-Appareil reproducteur
-Les inflorescences sont axillaires, de 1,5 à 3 cm de long, de 3 à 7 fleurs. Les calices sont glabres, le tube et les lobes ont 0,5 mm de long. La corolle et l'ovaire n'ont pu être observés.
-Le fruit est une drupe ovoïde de 15 à 20 mm par 14 à 15 mm, légèrement apiculé.
-Répartition géographique
-Afrique - Océan Indien occidental : Madagascar (Antsiranana - Montagne d'Ambre-, Nossi-Bé, Andapa, parc national de Masoala, Toamasina, Réserve spéciale d'Ambohitantely.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seule description dont nous disposons est celle de P.S. Green faite d'après des échantillons d'herbiers.
+</t>
         </is>
       </c>
     </row>
@@ -546,12 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon le site de la Flore de Madagascar (Catalogue of the Vascular Plants of Madagascar), ce taxon est endémique de Madagascar. Il a été retiré du genre Olea et affecté au genre Noronhia le 9/7/2009.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres de 10 m de  haut. Les parties jeunes sont glabres.
+Les pétioles des feuilles ont de 5 à 15 mm de longueur, pubescents à finement pubérulents. Le limbe des feuilles est sub-coriace, oblong ou étroitement oblong à légèrement lancéolé, de (5-)6 à 10 cm de long, (1-)2 à 4cm de large, la base est aigüe à presque obtuse, légèrement décurrent sur le pétiole, l'apex est obtus mais distinctement cuspidé. Il y a 5 à 7 nervures primaires de part et d'autre de la nervure centrale. Cette nervure est légèrement saillante sur la face adaxiale (face supérieure). Les feuilles sont pendantes.
 </t>
         </is>
       </c>
@@ -577,10 +591,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires, de 1,5 à 3 cm de long, de 3 à 7 fleurs. Les calices sont glabres, le tube et les lobes ont 0,5 mm de long. La corolle et l'ovaire n'ont pu être observés.
+Le fruit est une drupe ovoïde de 15 à 20 mm par 14 à 15 mm, légèrement apiculé.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,10 +629,109 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Afrique - Océan Indien occidental : Madagascar (Antsiranana - Montagne d'Ambre-, Nossi-Bé, Andapa, parc national de Masoala, Toamasina, Réserve spéciale d'Ambohitantely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Noronhia_ambrensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noronhia_ambrensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le site de la Flore de Madagascar (Catalogue of the Vascular Plants of Madagascar), ce taxon est endémique de Madagascar. Il a été retiré du genre Olea et affecté au genre Noronhia le 9/7/2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Noronhia_ambrensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noronhia_ambrensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Noronhia_ambrensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noronhia_ambrensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
